--- a/Question_Set2/Role-specific skills/HIPAA.xlsx
+++ b/Question_Set2/Role-specific skills/HIPAA.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You are a nurse in a hospital. One day, your coworker comes up to you with a conflict: The state law requires a patient's written consent for a particular disclosure of health information, but under HIPAA, such consent is not required. They ask you what they should do.What do you tell them?", 'ques_type': 2, 'options': ['They should follow HIPAA if there’s a conflict between HIPAA and state law.', 'They should follow state law only if it has been enforceable longer than HIPAA.', 'They should follow HIPAA only if the state law doesn’t describe “bona fide” research by public agencies.', 'They should follow state law only if it is more stringent than HIPAA in protecting patient privacy.'], 'score': 'They should follow HIPAA if there’s a conflict between HIPAA and state law.'}, {'title': 'You are a medical professional and a staff member at a covered entity.Which of the following documents must you ensure are kept to comply with HIPAA requirements?', 'ques_type': 2, 'options': ['Privacy noticeRegistry of interactionsConfidentiality statement', 'Accounting of disclosures documentationContract between the healthcare provider and covered entityPrivacy disclaimer', 'Acknowledgment of receipt of noticeConfidentiality statementAuthorization for use or disclosure of information', 'Business associate agreementsPrivacy disclaimerProtected health information transfer note'], 'score': 'Acknowledgment of receipt of noticeConfidentiality statementAuthorization for use or disclosure of information'}, {'title': 'You are part of the medical staff of a business associate. Your coworker admits that they shared protected health information about some patients with another covered entity because it would foster the development of a new highly beneficial product for the market.What are the potential legal consequences for your coworker?', 'ques_type': 2, 'options': ['A penalty of up to $50,000 and up to one year in prison due to the illegal sharing of protected health information with an unauthorized third party.', 'None, since fostering something that will fall under public interest is deemed a permitted use and disclosure of protected health information under HIPAA.', 'A penalty of up to $250,000 and up to 10 years in prison due to illegal sharing of protected health information for commercial purposes.', 'Disciplinary action from your workplace for breaching privacy and security policies, up to and including dismissal.'], 'score': 'A penalty of up to $250,000 and up to 10 years in prison due to illegal sharing of protected health information for commercial purposes.'}, {'title': 'You are a medical professional in a hospital. You are asked to de-identify protected health information about a given patient.What should you erase from a given document to achieve de-identification?', 'ques_type': 2, 'options': ['Dates, type of medical act, IP address', 'PET scan imaging, appointment schedule, lead nurse name', 'IP address, URLs, type of medical act', 'Med record number, account number, health plan beneficiary number, dates directly related to an individual (like birth date, admission date, etc.)'], 'score': 'Med record number, account number, health plan beneficiary number, dates directly related to an individual (like birth date, admission date, etc.)'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a nurse in a hospital. One day, your coworker comes up to you with a conflict: The state law requires a patient's written consent for a particular disclosure of health information, but under HIPAA, such consent is not required. They ask you what they should do.What do you tell them?",
+        "ques_type": 2,
+        "options": [
+            "They should follow HIPAA if there\u2019s a conflict between HIPAA and state law.",
+            "They should follow state law only if it has been enforceable longer than HIPAA.",
+            "They should follow HIPAA only if the state law doesn\u2019t describe \u201cbona fide\u201d research by public agencies.",
+            "They should follow state law only if it is more stringent than HIPAA in protecting patient privacy."
+        ],
+        "score": "They should follow HIPAA if there\u2019s a conflict between HIPAA and state law."
+    },
+    {
+        "title": "You are a medical professional and a staff member at a covered entity.Which of the following documents must you ensure are kept to comply with HIPAA requirements?",
+        "ques_type": 2,
+        "options": [
+            "Privacy noticeRegistry of interactionsConfidentiality statement",
+            "Accounting of disclosures documentationContract between the healthcare provider and covered entityPrivacy disclaimer",
+            "Acknowledgment of receipt of noticeConfidentiality statementAuthorization for use or disclosure of information",
+            "Business associate agreementsPrivacy disclaimerProtected health information transfer note"
+        ],
+        "score": "Acknowledgment of receipt of noticeConfidentiality statementAuthorization for use or disclosure of information"
+    },
+    {
+        "title": "You are part of the medical staff of a business associate. Your coworker admits that they shared protected health information about some patients with another covered entity because it would foster the development of a new highly beneficial product for the market.What are the potential legal consequences for your coworker?",
+        "ques_type": 2,
+        "options": [
+            "A penalty of up to $50,000 and up to one year in prison due to the illegal sharing of protected health information with an unauthorized third party.",
+            "None, since fostering something that will fall under public interest is deemed a permitted use and disclosure of protected health information under HIPAA.",
+            "A penalty of up to $250,000 and up to 10 years in prison due to illegal sharing of protected health information for commercial purposes.",
+            "Disciplinary action from your workplace for breaching privacy and security policies, up to and including dismissal."
+        ],
+        "score": "A penalty of up to $250,000 and up to 10 years in prison due to illegal sharing of protected health information for commercial purposes."
+    },
+    {
+        "title": "You are a medical professional in a hospital. You are asked to de-identify protected health information about a given patient.What should you erase from a given document to achieve de-identification?",
+        "ques_type": 2,
+        "options": [
+            "Dates, type of medical act, IP address",
+            "PET scan imaging, appointment schedule, lead nurse name",
+            "IP address, URLs, type of medical act",
+            "Med record number, account number, health plan beneficiary number, dates directly related to an individual (like birth date, admission date, etc.)"
+        ],
+        "score": "Med record number, account number, health plan beneficiary number, dates directly related to an individual (like birth date, admission date, etc.)"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
